--- a/data/trans_orig/CAGE_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CAGE_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>8630</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3940</v>
+        <v>3895</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18011</v>
+        <v>16792</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008364835401198652</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003819071735968601</v>
+        <v>0.003775642964969267</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0174572068519123</v>
+        <v>0.01627614104739073</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11109</v>
+        <v>11942</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002368980147419355</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.00844697924354487</v>
+        <v>0.009080367889477962</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -786,19 +786,19 @@
         <v>11746</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5895</v>
+        <v>5774</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21689</v>
+        <v>21612</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00500489599422843</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002512092143094864</v>
+        <v>0.002460205262209545</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009241984473313189</v>
+        <v>0.009209143595213569</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>1023093</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1013712</v>
+        <v>1014931</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1027783</v>
+        <v>1027828</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9916351645988013</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9825427931480888</v>
+        <v>0.9837238589526099</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9961809282640315</v>
+        <v>0.9962243570350309</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1289</v>
@@ -836,7 +836,7 @@
         <v>1311998</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1304004</v>
+        <v>1303171</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>1315113</v>
@@ -845,7 +845,7 @@
         <v>0.9976310198525806</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9915530207564551</v>
+        <v>0.9909196321105223</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>2335089</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2325146</v>
+        <v>2325223</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2340940</v>
+        <v>2341061</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9949951040057716</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9907580155266869</v>
+        <v>0.9907908564047864</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9974879078569051</v>
+        <v>0.9975397947377904</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>13702</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8207</v>
+        <v>7839</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22601</v>
+        <v>23184</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008091114908385495</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004846685064794637</v>
+        <v>0.004628965644051207</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01334635874350836</v>
+        <v>0.01369045535839643</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -982,19 +982,19 @@
         <v>4125</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1127</v>
+        <v>986</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11011</v>
+        <v>9387</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002598301492282937</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0007100268696430175</v>
+        <v>0.0006208562221534429</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.006935124214874685</v>
+        <v>0.005912524318587038</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -1003,19 +1003,19 @@
         <v>17827</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11092</v>
+        <v>11014</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27908</v>
+        <v>28133</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005433216614941208</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003380492061034677</v>
+        <v>0.003356822920771917</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008505829144462273</v>
+        <v>0.008574329520170914</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1679711</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1670812</v>
+        <v>1670229</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1685206</v>
+        <v>1685574</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9919088850916145</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9866536412564927</v>
+        <v>0.986309544641604</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9951533149352054</v>
+        <v>0.9953710343559491</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1550</v>
@@ -1053,19 +1053,19 @@
         <v>1583548</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1576662</v>
+        <v>1578286</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1586546</v>
+        <v>1586687</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9974016985077171</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9930648757851241</v>
+        <v>0.994087475681413</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9992899731303552</v>
+        <v>0.9993791437778465</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3185</v>
@@ -1074,19 +1074,19 @@
         <v>3263259</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3253178</v>
+        <v>3252953</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3269994</v>
+        <v>3270072</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9945667833850588</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9914941708555375</v>
+        <v>0.991425670479829</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9966195079389654</v>
+        <v>0.9966431770792281</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>3307</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9807</v>
+        <v>10483</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005997248270545519</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001565591353358556</v>
+        <v>0.001539189031331008</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0177845825595605</v>
+        <v>0.01901162941632409</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7532</v>
+        <v>7145</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004298721166366975</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01581086477707429</v>
+        <v>0.01499788381946366</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1220,19 +1220,19 @@
         <v>5355</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1999</v>
+        <v>1978</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12008</v>
+        <v>12816</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005209952426602541</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001945158108829484</v>
+        <v>0.001924093744554874</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01168337480694832</v>
+        <v>0.01246918580670409</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>548101</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>541601</v>
+        <v>540925</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>550545</v>
+        <v>550559</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9940027517294545</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9822154174404399</v>
+        <v>0.9809883705836775</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9984344086466415</v>
+        <v>0.998460810968669</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>450</v>
@@ -1270,7 +1270,7 @@
         <v>474364</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>468880</v>
+        <v>469267</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>476412</v>
@@ -1279,7 +1279,7 @@
         <v>0.995701278833633</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9841891352229263</v>
+        <v>0.9850021161805363</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,19 +1291,19 @@
         <v>1022465</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1015812</v>
+        <v>1015004</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1025821</v>
+        <v>1025842</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9947900475733975</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.988316625193052</v>
+        <v>0.9875308141932958</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9980548418911706</v>
+        <v>0.9980759062554451</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>25639</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17048</v>
+        <v>17199</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37380</v>
+        <v>38128</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007824928598742811</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005202995085618597</v>
+        <v>0.005249252012981832</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01140851388089124</v>
+        <v>0.01163662743468987</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1416,19 +1416,19 @@
         <v>9289</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4237</v>
+        <v>4364</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17685</v>
+        <v>18151</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002748785841692997</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001253897057115723</v>
+        <v>0.001291286998514182</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.005233451838633942</v>
+        <v>0.005371314625151636</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -1437,19 +1437,19 @@
         <v>34927</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24790</v>
+        <v>24826</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48921</v>
+        <v>47462</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.005247711592209641</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003724589368747743</v>
+        <v>0.003730046232927104</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.00735024235989293</v>
+        <v>0.007130935617490323</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3250904</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3239163</v>
+        <v>3238415</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3259495</v>
+        <v>3259344</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9921750714012572</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9885914861191086</v>
+        <v>0.98836337256531</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9947970049143814</v>
+        <v>0.9947507479870181</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3289</v>
@@ -1487,19 +1487,19 @@
         <v>3369908</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3361512</v>
+        <v>3361046</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3374960</v>
+        <v>3374833</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.997251214158307</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9947665481613661</v>
+        <v>0.9946286853748501</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9987461029428844</v>
+        <v>0.9987087130014859</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6478</v>
@@ -1508,19 +1508,19 @@
         <v>6620814</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6606820</v>
+        <v>6608279</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6630951</v>
+        <v>6630915</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9947522884077904</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9926497576401071</v>
+        <v>0.9928690643825095</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9962754106312522</v>
+        <v>0.9962699537670728</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>17939</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10135</v>
+        <v>10295</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29414</v>
+        <v>28480</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01840556543492314</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01039849381399013</v>
+        <v>0.01056263504977377</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03017959292135709</v>
+        <v>0.02922084255932794</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -1885,19 +1885,19 @@
         <v>17939</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9980</v>
+        <v>10414</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30448</v>
+        <v>30321</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007757545771143197</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004315668494302481</v>
+        <v>0.004503592741864167</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01316716252173272</v>
+        <v>0.01311220005610963</v>
       </c>
     </row>
     <row r="5">
@@ -1914,19 +1914,19 @@
         <v>956704</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>945229</v>
+        <v>946163</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>964508</v>
+        <v>964348</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9815944345650769</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.969820407078643</v>
+        <v>0.9707791574406721</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9896015061860099</v>
+        <v>0.9894373649502263</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1247</v>
@@ -1948,19 +1948,19 @@
         <v>2294501</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2281992</v>
+        <v>2282119</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2302460</v>
+        <v>2302026</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9922424542288568</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9868328374782673</v>
+        <v>0.9868877999438905</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9956843315056976</v>
+        <v>0.9954964072581359</v>
       </c>
     </row>
     <row r="6">
@@ -2052,19 +2052,19 @@
         <v>41853</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30900</v>
+        <v>30729</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>57628</v>
+        <v>57510</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02131071487242757</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0157337686343679</v>
+        <v>0.01564664234053499</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0293428831628091</v>
+        <v>0.02928294851842973</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -2073,19 +2073,19 @@
         <v>5124</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2008</v>
+        <v>1978</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12175</v>
+        <v>11311</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002915100815063553</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001142449904899254</v>
+        <v>0.001125035081839704</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.00692643117097257</v>
+        <v>0.006434560735216923</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -2094,19 +2094,19 @@
         <v>46978</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34234</v>
+        <v>35656</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60648</v>
+        <v>61482</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01262239033231789</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009198221897774984</v>
+        <v>0.009580302429509215</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01629552296786707</v>
+        <v>0.01651970968849311</v>
       </c>
     </row>
     <row r="8">
@@ -2123,19 +2123,19 @@
         <v>1922104</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1906329</v>
+        <v>1906447</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1933057</v>
+        <v>1933228</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9786892851275725</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9706571168371911</v>
+        <v>0.9707170514815703</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9842662313656322</v>
+        <v>0.9843533576594651</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1630</v>
@@ -2144,19 +2144,19 @@
         <v>1752679</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1745628</v>
+        <v>1746492</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1755795</v>
+        <v>1755825</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9970848991849365</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.993073568829026</v>
+        <v>0.993565439264783</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9988575500951007</v>
+        <v>0.9988749649181603</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3444</v>
@@ -2165,19 +2165,19 @@
         <v>3674782</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3661112</v>
+        <v>3660278</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3687526</v>
+        <v>3686104</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9873776096676821</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9837044770321333</v>
+        <v>0.983480290311507</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.990801778102225</v>
+        <v>0.9904196975704908</v>
       </c>
     </row>
     <row r="9">
@@ -2269,19 +2269,19 @@
         <v>6034</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1153</v>
+        <v>1909</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15190</v>
+        <v>16710</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01253906482260964</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002396271159615361</v>
+        <v>0.003967799109721862</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03156766982269266</v>
+        <v>0.03472762386487221</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -2303,19 +2303,19 @@
         <v>6034</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1960</v>
+        <v>1864</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15615</v>
+        <v>15199</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006419966829471945</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002085953512918833</v>
+        <v>0.001983504470459428</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01661542377322522</v>
+        <v>0.01617223564322594</v>
       </c>
     </row>
     <row r="11">
@@ -2332,19 +2332,19 @@
         <v>475147</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>465991</v>
+        <v>464471</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>480028</v>
+        <v>479272</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9874609351773903</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9684323301773073</v>
+        <v>0.965272376135128</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9976037288403846</v>
+        <v>0.9960322008902781</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>412</v>
@@ -2366,19 +2366,19 @@
         <v>933779</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>924198</v>
+        <v>924614</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>937853</v>
+        <v>937949</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.993580033170528</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9833845762267748</v>
+        <v>0.9838277643567741</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9979140464870812</v>
+        <v>0.9980164955295405</v>
       </c>
     </row>
     <row r="12">
@@ -2470,19 +2470,19 @@
         <v>65826</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>50371</v>
+        <v>50204</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>86702</v>
+        <v>87063</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01924852521466761</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01472941158439661</v>
+        <v>0.01468047504496706</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02535301915351244</v>
+        <v>0.02545874386696213</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -2491,19 +2491,19 @@
         <v>5124</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12761</v>
+        <v>12167</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001441710733705704</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0005629260610734226</v>
+        <v>0.0005627862245953514</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.003590381646885647</v>
+        <v>0.003423173299701974</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>66</v>
@@ -2512,19 +2512,19 @@
         <v>70950</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54724</v>
+        <v>54758</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>89206</v>
+        <v>89655</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01017347370651078</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007846788573229532</v>
+        <v>0.007851779260621685</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01279114731829094</v>
+        <v>0.01285554929886738</v>
       </c>
     </row>
     <row r="14">
@@ -2541,19 +2541,19 @@
         <v>3353956</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3333080</v>
+        <v>3332719</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3369411</v>
+        <v>3369578</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9807514747853324</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9746469808464874</v>
+        <v>0.974541256133038</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9852705884156032</v>
+        <v>0.9853195249550331</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3289</v>
@@ -2562,19 +2562,19 @@
         <v>3549106</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3541469</v>
+        <v>3542063</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3552229</v>
+        <v>3552230</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9985582892662943</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9964096183531145</v>
+        <v>0.9965768267002981</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9994370739389266</v>
+        <v>0.9994372137754047</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6430</v>
@@ -2583,19 +2583,19 @@
         <v>6903062</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6884806</v>
+        <v>6884357</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6919288</v>
+        <v>6919254</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9898265262934892</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9872088526817093</v>
+        <v>0.9871444507011327</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.992153211426771</v>
+        <v>0.9921482207393784</v>
       </c>
     </row>
     <row r="15">
@@ -2926,19 +2926,19 @@
         <v>16408</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9286</v>
+        <v>8866</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27908</v>
+        <v>26883</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02175088547326993</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01230980233159196</v>
+        <v>0.01175350664628233</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03699587922920647</v>
+        <v>0.03563769204073265</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6245</v>
+        <v>5946</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001109884124287161</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.006278394788451372</v>
+        <v>0.005977774901149095</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -2968,19 +2968,19 @@
         <v>17512</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9855</v>
+        <v>9792</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27269</v>
+        <v>28725</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01001234895051207</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005634431638233241</v>
+        <v>0.005598830392869443</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01559097036474516</v>
+        <v>0.0164235350497982</v>
       </c>
     </row>
     <row r="5">
@@ -2997,19 +2997,19 @@
         <v>737939</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>726439</v>
+        <v>727464</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>745061</v>
+        <v>745481</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.97824911452673</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.963004120770793</v>
+        <v>0.9643623079592667</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9876901976684079</v>
+        <v>0.9882464933537176</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>891</v>
@@ -3018,7 +3018,7 @@
         <v>993556</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>988415</v>
+        <v>988714</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>994660</v>
@@ -3027,7 +3027,7 @@
         <v>0.9988901158757129</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9937216052115476</v>
+        <v>0.9940222250988504</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -3039,19 +3039,19 @@
         <v>1731495</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1721738</v>
+        <v>1720282</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1739152</v>
+        <v>1739215</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9899876510494879</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9844090296352548</v>
+        <v>0.9835764649502018</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9943655683617667</v>
+        <v>0.9944011696071305</v>
       </c>
     </row>
     <row r="6">
@@ -3143,19 +3143,19 @@
         <v>28453</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18511</v>
+        <v>19034</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41441</v>
+        <v>42438</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01370308872632368</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008914874427467485</v>
+        <v>0.009166889043779148</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01995844494871804</v>
+        <v>0.02043827533307818</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -3164,19 +3164,19 @@
         <v>9045</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4264</v>
+        <v>4677</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16332</v>
+        <v>17263</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004549215495601765</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00214441447316452</v>
+        <v>0.002352196299065051</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.008214150339376024</v>
+        <v>0.008682526973370287</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -3185,19 +3185,19 @@
         <v>37498</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27331</v>
+        <v>26808</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>51160</v>
+        <v>51907</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009225337903766062</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006724116537265941</v>
+        <v>0.006595227060814508</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01258647489798354</v>
+        <v>0.01277017826755213</v>
       </c>
     </row>
     <row r="8">
@@ -3214,19 +3214,19 @@
         <v>2047932</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2034944</v>
+        <v>2033947</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2057874</v>
+        <v>2057351</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9862969112736764</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9800415550512827</v>
+        <v>0.9795617246669217</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9910851255725325</v>
+        <v>0.9908331109562208</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1899</v>
@@ -3235,19 +3235,19 @@
         <v>1979255</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1971968</v>
+        <v>1971037</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1984036</v>
+        <v>1983623</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9954507845043983</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9917858496606241</v>
+        <v>0.9913174730266298</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9978555855268355</v>
+        <v>0.9976478037009352</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3825</v>
@@ -3256,19 +3256,19 @@
         <v>4027187</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4013525</v>
+        <v>4012778</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4037354</v>
+        <v>4037877</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9907746620962339</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9874135251020167</v>
+        <v>0.9872298217324477</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9932758834627341</v>
+        <v>0.9934047729391854</v>
       </c>
     </row>
     <row r="9">
@@ -3360,19 +3360,19 @@
         <v>3920</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>956</v>
+        <v>999</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11784</v>
+        <v>14218</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007167031817320004</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0017486454848811</v>
+        <v>0.001826370925091958</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02154715844115757</v>
+        <v>0.02599729677140326</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -3381,19 +3381,19 @@
         <v>6739</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2019</v>
+        <v>2799</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13833</v>
+        <v>15025</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01227162613383507</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003677425908410316</v>
+        <v>0.005097448251014003</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02519039667669059</v>
+        <v>0.02736142290525052</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -3402,19 +3402,19 @@
         <v>10658</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5659</v>
+        <v>5577</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20683</v>
+        <v>20258</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009724578157906782</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005162897924356228</v>
+        <v>0.005088322482629333</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0188708636400292</v>
+        <v>0.01848318641226897</v>
       </c>
     </row>
     <row r="11">
@@ -3431,19 +3431,19 @@
         <v>542966</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>535102</v>
+        <v>532668</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>545930</v>
+        <v>545887</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.99283296818268</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9784528415588416</v>
+        <v>0.9740027032285965</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9982513545151189</v>
+        <v>0.9981736290749079</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>520</v>
@@ -3452,19 +3452,19 @@
         <v>542401</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>535307</v>
+        <v>534115</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>547121</v>
+        <v>546341</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.987728373866165</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9748096033233099</v>
+        <v>0.972638577094749</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9963225740915899</v>
+        <v>0.994902551748986</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1018</v>
@@ -3473,19 +3473,19 @@
         <v>1085369</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1075344</v>
+        <v>1075769</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1090368</v>
+        <v>1090450</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9902754218420933</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9811291363599721</v>
+        <v>0.9815168135877311</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9948371020756438</v>
+        <v>0.9949116775173706</v>
       </c>
     </row>
     <row r="12">
@@ -3577,19 +3577,19 @@
         <v>48780</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36162</v>
+        <v>35735</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65803</v>
+        <v>65312</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0144421747063665</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0107062890771747</v>
+        <v>0.01058001032785745</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01948209699456315</v>
+        <v>0.01933684796855113</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -3598,19 +3598,19 @@
         <v>16888</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9288</v>
+        <v>9798</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26126</v>
+        <v>27227</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.004781293130302325</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002629634977160797</v>
+        <v>0.002774037742826926</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.007396773247314803</v>
+        <v>0.007708576312752317</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -3619,19 +3619,19 @@
         <v>65668</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49817</v>
+        <v>50090</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>84576</v>
+        <v>83218</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009503738308002409</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007209733184761533</v>
+        <v>0.007249150166210055</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01224009418627654</v>
+        <v>0.01204360029653058</v>
       </c>
     </row>
     <row r="14">
@@ -3648,19 +3648,19 @@
         <v>3328838</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3311815</v>
+        <v>3312306</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3341456</v>
+        <v>3341883</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9855578252936334</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9805179030054368</v>
+        <v>0.9806631520314489</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9892937109228254</v>
+        <v>0.9894199896721426</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3310</v>
@@ -3669,19 +3669,19 @@
         <v>3515212</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3505974</v>
+        <v>3504873</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3522812</v>
+        <v>3522302</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9952187068696977</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9926032267526855</v>
+        <v>0.9922914236872478</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9973703650228394</v>
+        <v>0.9972259622571732</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6481</v>
@@ -3690,19 +3690,19 @@
         <v>6844050</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6825142</v>
+        <v>6826500</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6859901</v>
+        <v>6859628</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9904962616919976</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9877599058137234</v>
+        <v>0.9879563997034694</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9927902668152385</v>
+        <v>0.9927508498337899</v>
       </c>
     </row>
     <row r="15">
@@ -4033,19 +4033,19 @@
         <v>14965</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8766</v>
+        <v>8510</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23775</v>
+        <v>23564</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05806693151944529</v>
+        <v>0.05806693151944531</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03401407035315298</v>
+        <v>0.03302136405734781</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09224703116270144</v>
+        <v>0.0914286533468366</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3047</v>
+        <v>3519</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01185005586813159</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04066458464297482</v>
+        <v>0.04696639347683637</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -4075,19 +4075,19 @@
         <v>15853</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9564</v>
+        <v>9729</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25374</v>
+        <v>25549</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04765635183648026</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0287509566080074</v>
+        <v>0.02924636354435074</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07627502427367189</v>
+        <v>0.07680157570046139</v>
       </c>
     </row>
     <row r="5">
@@ -4104,19 +4104,19 @@
         <v>242762</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>233952</v>
+        <v>234163</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>248961</v>
+        <v>249217</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9419330684805547</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9077529688372983</v>
+        <v>0.9085713466531633</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9659859296468468</v>
+        <v>0.9669786359426521</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>121</v>
@@ -4125,16 +4125,16 @@
         <v>74045</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>71886</v>
+        <v>71414</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>74933</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9881499441318685</v>
+        <v>0.9881499441318683</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9593354153570246</v>
+        <v>0.9530336065231636</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4146,19 +4146,19 @@
         <v>316808</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>307287</v>
+        <v>307112</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>323097</v>
+        <v>322932</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9523436481635198</v>
+        <v>0.9523436481635197</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9237249757263281</v>
+        <v>0.9231984242995386</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9712490433919925</v>
+        <v>0.9707536364556489</v>
       </c>
     </row>
     <row r="6">
@@ -4250,19 +4250,19 @@
         <v>15286</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8475</v>
+        <v>8733</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26882</v>
+        <v>26805</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01468918618180915</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008144179412149474</v>
+        <v>0.008392011917089284</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02583188917600654</v>
+        <v>0.02575809915993806</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -4271,19 +4271,19 @@
         <v>11580</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5448</v>
+        <v>5599</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21133</v>
+        <v>23104</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02090733045111748</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009836870520796985</v>
+        <v>0.01010903446261229</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03815555946235531</v>
+        <v>0.04171394286101991</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -4292,19 +4292,19 @@
         <v>26866</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17512</v>
+        <v>17718</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43143</v>
+        <v>40627</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.01684911927074058</v>
+        <v>0.01684911927074059</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01098265744967857</v>
+        <v>0.01111175241322277</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02705714949694071</v>
+        <v>0.02547917507805959</v>
       </c>
     </row>
     <row r="8">
@@ -4321,19 +4321,19 @@
         <v>1025361</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1013765</v>
+        <v>1013842</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1032172</v>
+        <v>1031914</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.985310813818191</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9741681108239935</v>
+        <v>0.9742419008400623</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9918558205878507</v>
+        <v>0.9916079880829107</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>702</v>
@@ -4342,19 +4342,19 @@
         <v>542291</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>532738</v>
+        <v>530767</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>548423</v>
+        <v>548272</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9790926695488823</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.961844440537645</v>
+        <v>0.9582860571389771</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.990163129479203</v>
+        <v>0.9898909655373879</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1601</v>
@@ -4363,19 +4363,19 @@
         <v>1567652</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1551375</v>
+        <v>1553891</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1577006</v>
+        <v>1576800</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9831508807292594</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9729428505030597</v>
+        <v>0.9745208249219408</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9890173425503215</v>
+        <v>0.9888882475867775</v>
       </c>
     </row>
     <row r="9">
@@ -4467,19 +4467,19 @@
         <v>10960</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5897</v>
+        <v>5673</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18394</v>
+        <v>19353</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.02988779933092311</v>
+        <v>0.02988779933092312</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01608072700574427</v>
+        <v>0.0154693909277166</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05016256924059485</v>
+        <v>0.05277563128298185</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -4488,19 +4488,19 @@
         <v>4179</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1513</v>
+        <v>1779</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8426</v>
+        <v>8861</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01577679167746908</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005714138920429337</v>
+        <v>0.006717960612762143</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03181256210878079</v>
+        <v>0.03345411938531822</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -4509,19 +4509,19 @@
         <v>15138</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9397</v>
+        <v>9416</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23644</v>
+        <v>23656</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02396985011397488</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01487890030378385</v>
+        <v>0.01490885266201399</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03743722043982015</v>
+        <v>0.03745672212566767</v>
       </c>
     </row>
     <row r="11">
@@ -4538,19 +4538,19 @@
         <v>355736</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>348302</v>
+        <v>347343</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>360799</v>
+        <v>361023</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9701122006690768</v>
+        <v>0.9701122006690769</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.949837430759405</v>
+        <v>0.9472243687170179</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9839192729942557</v>
+        <v>0.9845306090722833</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>347</v>
@@ -4559,19 +4559,19 @@
         <v>260690</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>256443</v>
+        <v>256008</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>263356</v>
+        <v>263090</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9842232083225307</v>
+        <v>0.9842232083225311</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.968187437891219</v>
+        <v>0.9665458806146816</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9942858610795706</v>
+        <v>0.9932820393872379</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>681</v>
@@ -4580,19 +4580,19 @@
         <v>616426</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>607920</v>
+        <v>607908</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>622167</v>
+        <v>622148</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9760301498860251</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9625627795601798</v>
+        <v>0.9625432778743324</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9851210996962161</v>
+        <v>0.9850911473379861</v>
       </c>
     </row>
     <row r="12">
@@ -4684,19 +4684,19 @@
         <v>41211</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29882</v>
+        <v>30528</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56089</v>
+        <v>55994</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02475055992321194</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01794643374570999</v>
+        <v>0.01833429676429116</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03368567981835065</v>
+        <v>0.03362884533178042</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -4705,19 +4705,19 @@
         <v>16647</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9950</v>
+        <v>9978</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28298</v>
+        <v>27721</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01862728979229935</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01113338200801704</v>
+        <v>0.01116485945709597</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03166524138775918</v>
+        <v>0.03101869430332727</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>62</v>
@@ -4726,19 +4726,19 @@
         <v>57858</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>44852</v>
+        <v>43530</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>75311</v>
+        <v>77015</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02261192966766451</v>
+        <v>0.02261192966766452</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01752895319100025</v>
+        <v>0.01701234877465027</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02943279529006094</v>
+        <v>0.03009875737665482</v>
       </c>
     </row>
     <row r="14">
@@ -4755,19 +4755,19 @@
         <v>1623858</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1608980</v>
+        <v>1609075</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1635187</v>
+        <v>1634541</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.975249440076788</v>
+        <v>0.9752494400767883</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9663143201816493</v>
+        <v>0.9663711546682197</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.98205356625429</v>
+        <v>0.9816657032357088</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1170</v>
@@ -4776,19 +4776,19 @@
         <v>877027</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>865376</v>
+        <v>865953</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>883724</v>
+        <v>883696</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9813727102077006</v>
+        <v>0.9813727102077007</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9683347586122406</v>
+        <v>0.9689813056966728</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9888666179919829</v>
+        <v>0.9888351405429042</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2700</v>
@@ -4797,19 +4797,19 @@
         <v>2500885</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2483432</v>
+        <v>2481728</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2513891</v>
+        <v>2515213</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9773880703323354</v>
+        <v>0.9773880703323357</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9705672047099388</v>
+        <v>0.9699012426233452</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9824710468089995</v>
+        <v>0.9829876512253496</v>
       </c>
     </row>
     <row r="15">
